--- a/DART_dividends.xlsx
+++ b/DART_dividends.xlsx
@@ -2,7 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongjin\Desktop\Dropbox\배당주\Crawler\new.version\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="542">
   <si>
     <t>날짜</t>
   </si>
@@ -49,33 +54,945 @@
     <t>우선주 시가배당률</t>
   </si>
   <si>
+    <t>2017-04-27</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>유가증권시장</t>
+  </si>
+  <si>
+    <t>현금ㆍ현물배당결정</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170427800077</t>
+  </si>
+  <si>
+    <t>분기배당</t>
+  </si>
+  <si>
+    <t>현금배당</t>
+  </si>
+  <si>
+    <t>7,000</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>2017-04-28</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170428800610</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>2017-05-11</t>
+  </si>
+  <si>
+    <t>천일고속</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170511800470</t>
+  </si>
+  <si>
+    <t>3,000</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2017-05-12</t>
+  </si>
+  <si>
+    <t>화성밸브</t>
+  </si>
+  <si>
+    <t>코스닥시장</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170512900728</t>
+  </si>
+  <si>
+    <t>결산배당</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>포스코</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170512800555</t>
+  </si>
+  <si>
+    <t>1,500</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>2017-05-15</t>
+  </si>
+  <si>
+    <t>한온시스템</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170515800743</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>금비</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170515800439</t>
+  </si>
+  <si>
+    <t>중간배당</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>[기재정정]현금ㆍ현물배당결정</t>
+  </si>
+  <si>
+    <t>2017-05-17</t>
+  </si>
+  <si>
+    <t>신영증권</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170517800336</t>
+  </si>
+  <si>
+    <t>2,450</t>
+  </si>
+  <si>
+    <t>2,500</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>이씨에스</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170517900121</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>2017-05-18</t>
+  </si>
+  <si>
+    <t>기신정기</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170518800411</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>대신정보통신</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170518900236</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2017-05-25</t>
+  </si>
+  <si>
+    <t>대구백화점</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170525800418</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>2017-05-30</t>
+  </si>
+  <si>
+    <t>SBI핀테크솔루션즈</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170530900277</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>유유제약</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170531800368</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>2017-06-02</t>
+  </si>
+  <si>
+    <t>한국주철관공업</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170602800493</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2017-06-15</t>
+  </si>
+  <si>
+    <t>보광산업</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170615900330</t>
+  </si>
+  <si>
+    <t>2017-06-20</t>
+  </si>
+  <si>
+    <t>포시에스</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170620900116</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2017-06-28</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170628900060</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170630900599</t>
+  </si>
+  <si>
+    <t>2017-07-04</t>
+  </si>
+  <si>
+    <t>쌍용양회공업</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170704800513</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2017-07-05</t>
+  </si>
+  <si>
+    <t>케어젠</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170705900049</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>2017-07-10</t>
+  </si>
+  <si>
+    <t>유아이엘</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170710900069</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2017-07-11</t>
+  </si>
+  <si>
+    <t>하나투어</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170711800335</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>2017-07-13</t>
+  </si>
+  <si>
+    <t>케이씨씨</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170713800432</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>2017-07-14</t>
+  </si>
+  <si>
+    <t>리드코프</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170714900101</t>
+  </si>
+  <si>
+    <t>2017-07-20</t>
+  </si>
+  <si>
+    <t>한국단자공업</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170720800517</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>신흥</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170720800034</t>
+  </si>
+  <si>
+    <t>2017-07-21</t>
+  </si>
+  <si>
+    <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170721800284</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>2017-07-24</t>
+  </si>
+  <si>
+    <t>대교</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170724800480</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>네오티스</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170724900149</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2017-07-26</t>
+  </si>
+  <si>
+    <t>KPX그린케미칼</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170726800467</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>SK이노베이션</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170726800425</t>
+  </si>
+  <si>
+    <t>1,600</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>KPX케미칼</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170726800408</t>
+  </si>
+  <si>
+    <t>KPX홀딩스</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170726800401</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170726900377</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170726800369</t>
+  </si>
+  <si>
+    <t>KPX생명과학</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170726900266</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>현대자동차</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170726800197</t>
+  </si>
+  <si>
+    <t>한솔제지</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170726800190</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>2017-07-27</t>
+  </si>
+  <si>
+    <t>와이솔</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170727900403</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170727800025</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>2017-07-28</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170728800570</t>
+  </si>
+  <si>
+    <t>우리은행</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170728800149</t>
+  </si>
+  <si>
+    <t>현금ㆍ현물배당</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170728800132</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>진양산업</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170728800099</t>
+  </si>
+  <si>
+    <t>진양홀딩스</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170728800030</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2017-08-01</t>
+  </si>
+  <si>
+    <t>GKL</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170801800246</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>2017-08-02</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170802800193</t>
+  </si>
+  <si>
+    <t>2017-08-04</t>
+  </si>
+  <si>
+    <t>동양고속</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170804800289</t>
+  </si>
+  <si>
+    <t>까뮤이앤씨</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170804800141</t>
+  </si>
+  <si>
+    <t>삼화왕관</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170804800081</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>2017-08-08</t>
+  </si>
+  <si>
+    <t>서호전기</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170808900248</t>
+  </si>
+  <si>
+    <t>대화제약</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170808900115</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>2017-08-10</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170810800316</t>
+  </si>
+  <si>
+    <t>1,300</t>
+  </si>
+  <si>
+    <t>S-Oil</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170810800242</t>
+  </si>
+  <si>
+    <t>1,200</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2017-08-11</t>
+  </si>
+  <si>
+    <t>인탑스</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170811900663</t>
+  </si>
+  <si>
+    <t>지에스이</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170811900617</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>효성오앤비</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170811900489</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>청담러닝</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170811900226</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>2017-08-14</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170814801164</t>
+  </si>
+  <si>
+    <t>씨엠에스에듀</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170814900477</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2017-08-18</t>
+  </si>
+  <si>
+    <t>아이엔지생명</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170818800233</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>2017-08-24</t>
+  </si>
+  <si>
+    <t>양지사</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170824900306</t>
+  </si>
+  <si>
+    <t>2017-08-25</t>
+  </si>
+  <si>
+    <t>아세아텍</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170825900410</t>
+  </si>
+  <si>
+    <t>2017-08-28</t>
+  </si>
+  <si>
+    <t>만호제강</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170828800249</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>컬러레이</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170831900398</t>
+  </si>
+  <si>
+    <t>44.07</t>
+  </si>
+  <si>
+    <t>2017-09-04</t>
+  </si>
+  <si>
+    <t>크리스탈신소재</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170904900243</t>
+  </si>
+  <si>
+    <t>12.58</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>2017-09-07</t>
+  </si>
+  <si>
+    <t>세원정공</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170907800340</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>2017-09-08</t>
+  </si>
+  <si>
+    <t>홈센타홀딩스</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170908900104</t>
+  </si>
+  <si>
+    <t>2017-09-19</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170919900263</t>
+  </si>
+  <si>
+    <t>2017-09-21</t>
+  </si>
+  <si>
+    <t>삼양옵틱스</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170921900324</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2017-09-26</t>
+  </si>
+  <si>
+    <t>아주캐피탈</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20170926800571</t>
+  </si>
+  <si>
+    <t>1,253</t>
+  </si>
+  <si>
+    <t>2017-10-10</t>
+  </si>
+  <si>
+    <t>한국가구</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171010900510</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171010800470</t>
+  </si>
+  <si>
+    <t>GRT</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171010900009</t>
+  </si>
+  <si>
+    <t>72.30</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>2017-10-11</t>
+  </si>
+  <si>
+    <t>메디톡스</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171011900210</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>2017-10-12</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171012800526</t>
+  </si>
+  <si>
+    <t>14.9</t>
+  </si>
+  <si>
+    <t>풍강</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171012900338</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>골든센츄리</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171012900200</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2017-10-27</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171027900140</t>
+  </si>
+  <si>
+    <t>12.51</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171031800028</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>2017-11-03</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171103800698</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171103800429</t>
+  </si>
+  <si>
+    <t>2017-11-08</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171108800136</t>
+  </si>
+  <si>
+    <t>2017-11-09</t>
+  </si>
+  <si>
+    <t>인터엠</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171109900134</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>2017-11-14</t>
+  </si>
+  <si>
+    <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171114801391</t>
+  </si>
+  <si>
+    <t>5,000</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
     <t>2017-11-27</t>
   </si>
   <si>
     <t>케이피에프</t>
   </si>
   <si>
-    <t>코스닥시장</t>
-  </si>
-  <si>
-    <t>현금ㆍ현물배당결정</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171127900152</t>
   </si>
   <si>
-    <t>결산배당</t>
-  </si>
-  <si>
-    <t>현금배당</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>2017-11-28</t>
   </si>
   <si>
@@ -85,9 +1002,6 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171128900027</t>
   </si>
   <si>
-    <t>350</t>
-  </si>
-  <si>
     <t>2017-11-30</t>
   </si>
   <si>
@@ -97,9 +1011,6 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171130900319</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>0.63</t>
   </si>
   <si>
@@ -118,30 +1029,15 @@
     <t>1.94</t>
   </si>
   <si>
-    <t>금비</t>
-  </si>
-  <si>
-    <t>유가증권시장</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171204800230</t>
   </si>
   <si>
-    <t>1,000</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
     <t>부광약품</t>
   </si>
   <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171204800222</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>비엠티</t>
   </si>
   <si>
@@ -160,18 +1056,12 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171205900634</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>시큐브</t>
   </si>
   <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171205900579</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>방림</t>
   </si>
   <si>
@@ -181,9 +1071,6 @@
     <t>520</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>2017-12-06</t>
   </si>
   <si>
@@ -199,9 +1086,6 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171206900435</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>코미코</t>
   </si>
   <si>
@@ -223,15 +1107,9 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171207900348</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>2017-12-08</t>
   </si>
   <si>
-    <t>[기재정정]현금ㆍ현물배당결정</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171208900711</t>
   </si>
   <si>
@@ -250,18 +1128,12 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171211900328</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>코라오홀딩스</t>
   </si>
   <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171211800322</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>상신브레이크</t>
   </si>
   <si>
@@ -304,15 +1176,9 @@
     <t>400</t>
   </si>
   <si>
-    <t>케어젠</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171212900085</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>2017-12-13</t>
   </si>
   <si>
@@ -322,15 +1188,9 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171213900863</t>
   </si>
   <si>
-    <t>동양고속</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171213800486</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>테스</t>
   </si>
   <si>
@@ -370,24 +1230,15 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171214900236</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
     <t>2017-12-15</t>
   </si>
   <si>
-    <t>메디톡스</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171215901435</t>
   </si>
   <si>
     <t>1,400</t>
   </si>
   <si>
-    <t>보광산업</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171215901231</t>
   </si>
   <si>
@@ -397,21 +1248,12 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171215900868</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>동일고무벨트</t>
   </si>
   <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171215800801</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>유니테스트</t>
   </si>
   <si>
@@ -469,9 +1311,6 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171218900382</t>
   </si>
   <si>
-    <t>와이솔</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171218900362</t>
   </si>
   <si>
@@ -517,9 +1356,6 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171219900692</t>
   </si>
   <si>
-    <t>550</t>
-  </si>
-  <si>
     <t>에코마케팅</t>
   </si>
   <si>
@@ -541,9 +1377,6 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171219900180</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>2017-12-20</t>
   </si>
   <si>
@@ -613,15 +1446,9 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171220900105</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171220800056</t>
   </si>
   <si>
-    <t>S&amp;T;홀딩스</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171220800026</t>
   </si>
   <si>
@@ -640,9 +1467,6 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171221900150</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>로스웰</t>
   </si>
   <si>
@@ -721,9 +1545,6 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171227900703</t>
   </si>
   <si>
-    <t>0.7</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171227900621</t>
   </si>
   <si>
@@ -763,9 +1584,6 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171227900169</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171227900150</t>
   </si>
   <si>
@@ -775,21 +1593,12 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171227900144</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171227900102</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171227900083</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171227900076</t>
   </si>
   <si>
@@ -811,9 +1620,6 @@
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171228900899</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171228900887</t>
   </si>
   <si>
@@ -836,13 +1642,16 @@
   </si>
   <si>
     <t>http://dart.fss.or.kr/dsaf001/main.do?rcpNo=20171229900095</t>
+  </si>
+  <si>
+    <t>S&amp;T홀딩스</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +1671,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -890,16 +1707,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1201,9 +2021,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1274,21 +2096,21 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1297,7 +2119,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -1306,24 +2128,24 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1332,7 +2154,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1341,68 +2163,68 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1411,33 +2233,33 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1446,24 +2268,24 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -1472,33 +2294,33 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1507,138 +2329,138 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1647,68 +2469,68 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1717,208 +2539,208 @@
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1927,7 +2749,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1936,68 +2758,68 @@
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -2006,59 +2828,59 @@
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -2067,7 +2889,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -2076,94 +2898,94 @@
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -2172,33 +2994,33 @@
         <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -2207,33 +3029,33 @@
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -2242,7 +3064,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -2251,59 +3073,59 @@
         <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="J30" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -2312,33 +3134,33 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -2347,33 +3169,33 @@
         <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -2382,173 +3204,173 @@
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>126</v>
+        <v>53</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -2557,33 +3379,33 @@
         <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2592,42 +3414,42 @@
         <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="K40" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -2636,24 +3458,24 @@
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -2662,7 +3484,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -2671,24 +3493,24 @@
         <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2697,7 +3519,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -2706,59 +3528,59 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -2767,33 +3589,33 @@
         <v>14</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="K45" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -2802,33 +3624,33 @@
         <v>14</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -2837,77 +3659,77 @@
         <v>14</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -2919,21 +3741,21 @@
         <v>41</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -2942,7 +3764,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -2951,24 +3773,24 @@
         <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J50" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -2977,7 +3799,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2986,24 +3808,24 @@
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K51" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -3012,42 +3834,42 @@
         <v>14</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="K52" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -3056,59 +3878,59 @@
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="K53" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="K54" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -3117,7 +3939,7 @@
         <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -3126,103 +3948,103 @@
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="I55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J55" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="K55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="K56" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="K57" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -3231,94 +4053,94 @@
         <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K58" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="K59" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J60" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="K60" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -3327,7 +4149,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -3336,59 +4158,59 @@
         <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J61" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="K61" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s">
         <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="K62" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -3397,208 +4219,208 @@
         <v>14</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="K63" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J64" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K64" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J65" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="K65" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>249</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J66" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="K66" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s">
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J67" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="K67" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s">
         <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J68" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="K68" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -3607,42 +4429,42 @@
         <v>14</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J69" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="K69" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
@@ -3651,33 +4473,33 @@
         <v>17</v>
       </c>
       <c r="H70" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="I70" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J70" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K70" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
@@ -3686,59 +4508,59 @@
         <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J71" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K71" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G72" t="s">
         <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J72" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="K72" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -3747,42 +4569,42 @@
         <v>14</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s">
         <v>17</v>
       </c>
       <c r="H73" t="s">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J73" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K73" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -3791,24 +4613,24 @@
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="K74" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3817,7 +4639,7 @@
         <v>14</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
@@ -3826,68 +4648,68 @@
         <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="K75" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J76" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="K76" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D77" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
@@ -3896,173 +4718,173 @@
         <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="K77" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s">
         <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J78" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="K78" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="I79" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G80" t="s">
         <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I80" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="J80" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="K80" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G81" t="s">
         <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J81" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="K81" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
@@ -4071,33 +4893,33 @@
         <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J82" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="K82" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
@@ -4106,33 +4928,33 @@
         <v>17</v>
       </c>
       <c r="H83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
@@ -4141,33 +4963,33 @@
         <v>17</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J84" t="s">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="K84" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
@@ -4176,68 +4998,68 @@
         <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J85" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="K85" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J86" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
@@ -4246,611 +5068,3621 @@
         <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J87" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="K87" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>322</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D88" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
         <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J88" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="K88" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J89" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="K89" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>328</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>248</v>
+        <v>329</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
         <v>17</v>
       </c>
       <c r="H90" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J90" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="K90" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
         <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>61</v>
+        <v>334</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J91" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="K91" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="I92" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J92" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="K92" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>337</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J93" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="K93" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>339</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
         <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J94" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="K94" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>342</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J95" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="K95" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>342</v>
       </c>
       <c r="B96" t="s">
-        <v>197</v>
+        <v>345</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>17</v>
       </c>
       <c r="H96" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J96" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K96" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>342</v>
       </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>347</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>104</v>
+        <v>349</v>
       </c>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J97" t="s">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="K97" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>351</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="I98" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K98" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>353</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>17</v>
       </c>
       <c r="H99" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I99" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J99" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="K99" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D100" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
         <v>17</v>
       </c>
       <c r="H100" t="s">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="I100" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J100" t="s">
-        <v>267</v>
+        <v>358</v>
       </c>
       <c r="K100" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>261</v>
+        <v>359</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="I101" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J101" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="K101" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D102" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
         <v>17</v>
       </c>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="I102" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J102" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="K102" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="I103" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K103" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>269</v>
+        <v>366</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>367</v>
       </c>
       <c r="C104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s">
+        <v>25</v>
+      </c>
+      <c r="J104" t="s">
+        <v>25</v>
+      </c>
+      <c r="K104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>366</v>
+      </c>
+      <c r="B105" t="s">
+        <v>369</v>
+      </c>
+      <c r="C105" t="s">
         <v>13</v>
       </c>
-      <c r="D104" t="s">
-        <v>71</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s">
-        <v>161</v>
-      </c>
-      <c r="I104" t="s">
-        <v>19</v>
-      </c>
-      <c r="J104" t="s">
-        <v>249</v>
-      </c>
-      <c r="K104" t="s">
-        <v>19</v>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s">
+        <v>315</v>
+      </c>
+      <c r="I105" t="s">
+        <v>25</v>
+      </c>
+      <c r="J105" t="s">
+        <v>25</v>
+      </c>
+      <c r="K105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>366</v>
+      </c>
+      <c r="B106" t="s">
+        <v>371</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F106" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" t="s">
+        <v>373</v>
+      </c>
+      <c r="I106" t="s">
+        <v>25</v>
+      </c>
+      <c r="J106" t="s">
+        <v>25</v>
+      </c>
+      <c r="K106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>366</v>
+      </c>
+      <c r="B107" t="s">
+        <v>374</v>
+      </c>
+      <c r="C107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F107" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="s">
+        <v>37</v>
+      </c>
+      <c r="I107" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107" t="s">
+        <v>25</v>
+      </c>
+      <c r="K107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>366</v>
+      </c>
+      <c r="B108" t="s">
+        <v>376</v>
+      </c>
+      <c r="C108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" t="s">
+        <v>378</v>
+      </c>
+      <c r="I108" t="s">
+        <v>25</v>
+      </c>
+      <c r="J108" t="s">
+        <v>25</v>
+      </c>
+      <c r="K108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>366</v>
+      </c>
+      <c r="B109" t="s">
+        <v>379</v>
+      </c>
+      <c r="C109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F109" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" t="s">
+        <v>101</v>
+      </c>
+      <c r="I109" t="s">
+        <v>101</v>
+      </c>
+      <c r="J109" t="s">
+        <v>25</v>
+      </c>
+      <c r="K109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>381</v>
+      </c>
+      <c r="B110" t="s">
+        <v>382</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F110" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" t="s">
+        <v>384</v>
+      </c>
+      <c r="I110" t="s">
+        <v>25</v>
+      </c>
+      <c r="J110" t="s">
+        <v>25</v>
+      </c>
+      <c r="K110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>381</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F111" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s">
+        <v>115</v>
+      </c>
+      <c r="I111" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111" t="s">
+        <v>25</v>
+      </c>
+      <c r="K111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>386</v>
+      </c>
+      <c r="B112" t="s">
+        <v>387</v>
+      </c>
+      <c r="C112" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F112" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" t="s">
+        <v>378</v>
+      </c>
+      <c r="I112" t="s">
+        <v>25</v>
+      </c>
+      <c r="J112" t="s">
+        <v>25</v>
+      </c>
+      <c r="K112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>386</v>
+      </c>
+      <c r="B113" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F113" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" t="s">
+        <v>51</v>
+      </c>
+      <c r="I113" t="s">
+        <v>25</v>
+      </c>
+      <c r="J113" t="s">
+        <v>25</v>
+      </c>
+      <c r="K113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>386</v>
+      </c>
+      <c r="B114" t="s">
+        <v>390</v>
+      </c>
+      <c r="C114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F114" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
+        <v>384</v>
+      </c>
+      <c r="I114" t="s">
+        <v>25</v>
+      </c>
+      <c r="J114" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>386</v>
+      </c>
+      <c r="B115" t="s">
+        <v>392</v>
+      </c>
+      <c r="C115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" t="s">
+        <v>394</v>
+      </c>
+      <c r="I115" t="s">
+        <v>25</v>
+      </c>
+      <c r="J115" t="s">
+        <v>25</v>
+      </c>
+      <c r="K115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>395</v>
+      </c>
+      <c r="B116" t="s">
+        <v>396</v>
+      </c>
+      <c r="C116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F116" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" t="s">
+        <v>101</v>
+      </c>
+      <c r="I116" t="s">
+        <v>25</v>
+      </c>
+      <c r="J116" t="s">
+        <v>398</v>
+      </c>
+      <c r="K116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>395</v>
+      </c>
+      <c r="B117" t="s">
+        <v>399</v>
+      </c>
+      <c r="C117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F117" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" t="s">
+        <v>51</v>
+      </c>
+      <c r="I117" t="s">
+        <v>25</v>
+      </c>
+      <c r="J117" t="s">
+        <v>25</v>
+      </c>
+      <c r="K117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>395</v>
+      </c>
+      <c r="B118" t="s">
+        <v>401</v>
+      </c>
+      <c r="C118" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F118" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" t="s">
+        <v>77</v>
+      </c>
+      <c r="I118" t="s">
+        <v>25</v>
+      </c>
+      <c r="J118" t="s">
+        <v>94</v>
+      </c>
+      <c r="K118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>403</v>
+      </c>
+      <c r="B119" t="s">
+        <v>288</v>
+      </c>
+      <c r="C119" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F119" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" t="s">
+        <v>405</v>
+      </c>
+      <c r="I119" t="s">
+        <v>25</v>
+      </c>
+      <c r="J119" t="s">
+        <v>25</v>
+      </c>
+      <c r="K119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>403</v>
+      </c>
+      <c r="B120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F120" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" t="s">
+        <v>101</v>
+      </c>
+      <c r="I120" t="s">
+        <v>25</v>
+      </c>
+      <c r="J120" t="s">
+        <v>25</v>
+      </c>
+      <c r="K120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>403</v>
+      </c>
+      <c r="B121" t="s">
+        <v>407</v>
+      </c>
+      <c r="C121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F121" t="s">
+        <v>36</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121" t="s">
+        <v>76</v>
+      </c>
+      <c r="J121" t="s">
+        <v>156</v>
+      </c>
+      <c r="K121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>403</v>
+      </c>
+      <c r="B122" t="s">
+        <v>409</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F122" t="s">
+        <v>36</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" t="s">
+        <v>296</v>
+      </c>
+      <c r="I122" t="s">
+        <v>25</v>
+      </c>
+      <c r="J122" t="s">
+        <v>25</v>
+      </c>
+      <c r="K122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>403</v>
+      </c>
+      <c r="B123" t="s">
+        <v>411</v>
+      </c>
+      <c r="C123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F123" t="s">
+        <v>36</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" t="s">
+        <v>63</v>
+      </c>
+      <c r="I123" t="s">
+        <v>25</v>
+      </c>
+      <c r="J123" t="s">
+        <v>25</v>
+      </c>
+      <c r="K123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>403</v>
+      </c>
+      <c r="B124" t="s">
+        <v>413</v>
+      </c>
+      <c r="C124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F124" t="s">
+        <v>36</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" t="s">
+        <v>115</v>
+      </c>
+      <c r="I124" t="s">
+        <v>25</v>
+      </c>
+      <c r="J124" t="s">
+        <v>25</v>
+      </c>
+      <c r="K124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>403</v>
+      </c>
+      <c r="B125" t="s">
+        <v>415</v>
+      </c>
+      <c r="C125" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F125" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" t="s">
+        <v>51</v>
+      </c>
+      <c r="I125" t="s">
+        <v>25</v>
+      </c>
+      <c r="J125" t="s">
+        <v>25</v>
+      </c>
+      <c r="K125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>403</v>
+      </c>
+      <c r="B126" t="s">
+        <v>417</v>
+      </c>
+      <c r="C126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F126" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" t="s">
+        <v>115</v>
+      </c>
+      <c r="I126" t="s">
+        <v>25</v>
+      </c>
+      <c r="J126" t="s">
+        <v>25</v>
+      </c>
+      <c r="K126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>403</v>
+      </c>
+      <c r="B127" t="s">
+        <v>419</v>
+      </c>
+      <c r="C127" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F127" t="s">
+        <v>36</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" t="s">
+        <v>378</v>
+      </c>
+      <c r="I127" t="s">
+        <v>25</v>
+      </c>
+      <c r="J127" t="s">
+        <v>25</v>
+      </c>
+      <c r="K127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>403</v>
+      </c>
+      <c r="B128" t="s">
+        <v>421</v>
+      </c>
+      <c r="C128" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F128" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I128" t="s">
+        <v>25</v>
+      </c>
+      <c r="J128" t="s">
+        <v>25</v>
+      </c>
+      <c r="K128" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>403</v>
+      </c>
+      <c r="B129" t="s">
+        <v>423</v>
+      </c>
+      <c r="C129" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F129" t="s">
+        <v>36</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" t="s">
+        <v>101</v>
+      </c>
+      <c r="I129" t="s">
+        <v>25</v>
+      </c>
+      <c r="J129" t="s">
+        <v>25</v>
+      </c>
+      <c r="K129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>425</v>
+      </c>
+      <c r="B130" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" t="s">
+        <v>53</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F130" t="s">
+        <v>36</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" t="s">
+        <v>427</v>
+      </c>
+      <c r="I130" t="s">
+        <v>25</v>
+      </c>
+      <c r="J130" t="s">
+        <v>25</v>
+      </c>
+      <c r="K130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>425</v>
+      </c>
+      <c r="B131" t="s">
+        <v>428</v>
+      </c>
+      <c r="C131" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F131" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" t="s">
+        <v>101</v>
+      </c>
+      <c r="I131" t="s">
+        <v>25</v>
+      </c>
+      <c r="J131" t="s">
+        <v>25</v>
+      </c>
+      <c r="K131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>425</v>
+      </c>
+      <c r="B132" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" t="s">
+        <v>68</v>
+      </c>
+      <c r="I132" t="s">
+        <v>25</v>
+      </c>
+      <c r="J132" t="s">
+        <v>25</v>
+      </c>
+      <c r="K132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>425</v>
+      </c>
+      <c r="B133" t="s">
+        <v>431</v>
+      </c>
+      <c r="C133" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F133" t="s">
+        <v>36</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" t="s">
+        <v>101</v>
+      </c>
+      <c r="I133" t="s">
+        <v>25</v>
+      </c>
+      <c r="J133" t="s">
+        <v>25</v>
+      </c>
+      <c r="K133" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>425</v>
+      </c>
+      <c r="B134" t="s">
+        <v>433</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F134" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s">
+        <v>101</v>
+      </c>
+      <c r="I134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K134" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>425</v>
+      </c>
+      <c r="B135" t="s">
+        <v>435</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F135" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" t="s">
+        <v>63</v>
+      </c>
+      <c r="I135" t="s">
+        <v>25</v>
+      </c>
+      <c r="J135" t="s">
+        <v>25</v>
+      </c>
+      <c r="K135" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>425</v>
+      </c>
+      <c r="B136" t="s">
+        <v>437</v>
+      </c>
+      <c r="C136" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F136" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s">
+        <v>439</v>
+      </c>
+      <c r="I136" t="s">
+        <v>25</v>
+      </c>
+      <c r="J136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K136" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>425</v>
+      </c>
+      <c r="B137" t="s">
+        <v>440</v>
+      </c>
+      <c r="C137" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F137" t="s">
+        <v>36</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" t="s">
+        <v>77</v>
+      </c>
+      <c r="I137" t="s">
+        <v>25</v>
+      </c>
+      <c r="J137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K137" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>442</v>
+      </c>
+      <c r="B138" t="s">
+        <v>443</v>
+      </c>
+      <c r="C138" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F138" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s">
+        <v>205</v>
+      </c>
+      <c r="I138" t="s">
+        <v>25</v>
+      </c>
+      <c r="J138" t="s">
+        <v>25</v>
+      </c>
+      <c r="K138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>442</v>
+      </c>
+      <c r="B139" t="s">
+        <v>445</v>
+      </c>
+      <c r="C139" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F139" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" t="s">
+        <v>76</v>
+      </c>
+      <c r="I139" t="s">
+        <v>25</v>
+      </c>
+      <c r="J139" t="s">
+        <v>25</v>
+      </c>
+      <c r="K139" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>442</v>
+      </c>
+      <c r="B140" t="s">
+        <v>447</v>
+      </c>
+      <c r="C140" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F140" t="s">
+        <v>36</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s">
+        <v>449</v>
+      </c>
+      <c r="I140" t="s">
+        <v>25</v>
+      </c>
+      <c r="J140" t="s">
+        <v>25</v>
+      </c>
+      <c r="K140" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>442</v>
+      </c>
+      <c r="B141" t="s">
+        <v>450</v>
+      </c>
+      <c r="C141" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F141" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" t="s">
+        <v>63</v>
+      </c>
+      <c r="I141" t="s">
+        <v>25</v>
+      </c>
+      <c r="J141" t="s">
+        <v>42</v>
+      </c>
+      <c r="K141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>452</v>
+      </c>
+      <c r="B142" t="s">
+        <v>453</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F142" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" t="s">
+        <v>37</v>
+      </c>
+      <c r="I142" t="s">
+        <v>25</v>
+      </c>
+      <c r="J142" t="s">
+        <v>25</v>
+      </c>
+      <c r="K142" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>452</v>
+      </c>
+      <c r="B143" t="s">
+        <v>455</v>
+      </c>
+      <c r="C143" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" t="s">
+        <v>76</v>
+      </c>
+      <c r="I143" t="s">
+        <v>25</v>
+      </c>
+      <c r="J143" t="s">
+        <v>25</v>
+      </c>
+      <c r="K143" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>452</v>
+      </c>
+      <c r="B144" t="s">
+        <v>457</v>
+      </c>
+      <c r="C144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F144" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s">
+        <v>449</v>
+      </c>
+      <c r="I144" t="s">
+        <v>25</v>
+      </c>
+      <c r="J144" t="s">
+        <v>25</v>
+      </c>
+      <c r="K144" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>452</v>
+      </c>
+      <c r="B145" t="s">
+        <v>459</v>
+      </c>
+      <c r="C145" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F145" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s">
+        <v>229</v>
+      </c>
+      <c r="I145" t="s">
+        <v>25</v>
+      </c>
+      <c r="J145" t="s">
+        <v>25</v>
+      </c>
+      <c r="K145" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>452</v>
+      </c>
+      <c r="B146" t="s">
+        <v>461</v>
+      </c>
+      <c r="C146" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F146" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s">
+        <v>127</v>
+      </c>
+      <c r="I146" t="s">
+        <v>25</v>
+      </c>
+      <c r="J146" t="s">
+        <v>25</v>
+      </c>
+      <c r="K146" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>452</v>
+      </c>
+      <c r="B147" t="s">
+        <v>463</v>
+      </c>
+      <c r="C147" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F147" t="s">
+        <v>36</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" t="s">
+        <v>465</v>
+      </c>
+      <c r="I147" t="s">
+        <v>25</v>
+      </c>
+      <c r="J147" t="s">
+        <v>25</v>
+      </c>
+      <c r="K147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>452</v>
+      </c>
+      <c r="B148" t="s">
+        <v>466</v>
+      </c>
+      <c r="C148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F148" t="s">
+        <v>36</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" t="s">
+        <v>68</v>
+      </c>
+      <c r="I148" t="s">
+        <v>25</v>
+      </c>
+      <c r="J148" t="s">
+        <v>25</v>
+      </c>
+      <c r="K148" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>452</v>
+      </c>
+      <c r="B149" t="s">
+        <v>468</v>
+      </c>
+      <c r="C149" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F149" t="s">
+        <v>36</v>
+      </c>
+      <c r="G149" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" t="s">
+        <v>470</v>
+      </c>
+      <c r="I149" t="s">
+        <v>25</v>
+      </c>
+      <c r="J149" t="s">
+        <v>25</v>
+      </c>
+      <c r="K149" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>452</v>
+      </c>
+      <c r="B150" t="s">
+        <v>471</v>
+      </c>
+      <c r="C150" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F150" t="s">
+        <v>36</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" t="s">
+        <v>77</v>
+      </c>
+      <c r="I150" t="s">
+        <v>25</v>
+      </c>
+      <c r="J150" t="s">
+        <v>25</v>
+      </c>
+      <c r="K150" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>452</v>
+      </c>
+      <c r="B151" t="s">
+        <v>473</v>
+      </c>
+      <c r="C151" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F151" t="s">
+        <v>36</v>
+      </c>
+      <c r="G151" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" t="s">
+        <v>72</v>
+      </c>
+      <c r="I151" t="s">
+        <v>25</v>
+      </c>
+      <c r="J151" t="s">
+        <v>25</v>
+      </c>
+      <c r="K151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>452</v>
+      </c>
+      <c r="B152" t="s">
+        <v>382</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F152" t="s">
+        <v>36</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" t="s">
+        <v>384</v>
+      </c>
+      <c r="I152" t="s">
+        <v>25</v>
+      </c>
+      <c r="J152" t="s">
+        <v>25</v>
+      </c>
+      <c r="K152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>452</v>
+      </c>
+      <c r="B153" t="s">
+        <v>541</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F153" t="s">
+        <v>36</v>
+      </c>
+      <c r="G153" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153" t="s">
+        <v>63</v>
+      </c>
+      <c r="I153" t="s">
+        <v>25</v>
+      </c>
+      <c r="J153" t="s">
+        <v>25</v>
+      </c>
+      <c r="K153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>477</v>
+      </c>
+      <c r="B154" t="s">
+        <v>478</v>
+      </c>
+      <c r="C154" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F154" t="s">
+        <v>36</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" t="s">
+        <v>51</v>
+      </c>
+      <c r="I154" t="s">
+        <v>25</v>
+      </c>
+      <c r="J154" t="s">
+        <v>25</v>
+      </c>
+      <c r="K154" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>477</v>
+      </c>
+      <c r="B155" t="s">
+        <v>480</v>
+      </c>
+      <c r="C155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F155" t="s">
+        <v>36</v>
+      </c>
+      <c r="G155" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" t="s">
+        <v>37</v>
+      </c>
+      <c r="I155" t="s">
+        <v>25</v>
+      </c>
+      <c r="J155" t="s">
+        <v>186</v>
+      </c>
+      <c r="K155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>477</v>
+      </c>
+      <c r="B156" t="s">
+        <v>482</v>
+      </c>
+      <c r="C156" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F156" t="s">
+        <v>36</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" t="s">
+        <v>484</v>
+      </c>
+      <c r="I156" t="s">
+        <v>25</v>
+      </c>
+      <c r="J156" t="s">
+        <v>25</v>
+      </c>
+      <c r="K156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>485</v>
+      </c>
+      <c r="B157" t="s">
+        <v>486</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F157" t="s">
+        <v>36</v>
+      </c>
+      <c r="G157" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" t="s">
+        <v>488</v>
+      </c>
+      <c r="I157" t="s">
+        <v>25</v>
+      </c>
+      <c r="J157" t="s">
+        <v>25</v>
+      </c>
+      <c r="K157" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>485</v>
+      </c>
+      <c r="B158" t="s">
+        <v>457</v>
+      </c>
+      <c r="C158" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" t="s">
+        <v>53</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F158" t="s">
+        <v>36</v>
+      </c>
+      <c r="G158" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" t="s">
+        <v>449</v>
+      </c>
+      <c r="I158" t="s">
+        <v>25</v>
+      </c>
+      <c r="J158" t="s">
+        <v>25</v>
+      </c>
+      <c r="K158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>485</v>
+      </c>
+      <c r="B159" t="s">
+        <v>490</v>
+      </c>
+      <c r="C159" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F159" t="s">
+        <v>36</v>
+      </c>
+      <c r="G159" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" t="s">
+        <v>77</v>
+      </c>
+      <c r="I159" t="s">
+        <v>25</v>
+      </c>
+      <c r="J159" t="s">
+        <v>25</v>
+      </c>
+      <c r="K159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>485</v>
+      </c>
+      <c r="B160" t="s">
+        <v>492</v>
+      </c>
+      <c r="C160" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F160" t="s">
+        <v>36</v>
+      </c>
+      <c r="G160" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" t="s">
+        <v>77</v>
+      </c>
+      <c r="I160" t="s">
+        <v>25</v>
+      </c>
+      <c r="J160" t="s">
+        <v>25</v>
+      </c>
+      <c r="K160" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>485</v>
+      </c>
+      <c r="B161" t="s">
+        <v>494</v>
+      </c>
+      <c r="C161" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F161" t="s">
+        <v>36</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" t="s">
+        <v>63</v>
+      </c>
+      <c r="I161" t="s">
+        <v>25</v>
+      </c>
+      <c r="J161" t="s">
+        <v>25</v>
+      </c>
+      <c r="K161" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>496</v>
+      </c>
+      <c r="B162" t="s">
+        <v>343</v>
+      </c>
+      <c r="C162" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" t="s">
+        <v>53</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F162" t="s">
+        <v>36</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" t="s">
+        <v>191</v>
+      </c>
+      <c r="I162" t="s">
+        <v>25</v>
+      </c>
+      <c r="J162" t="s">
+        <v>498</v>
+      </c>
+      <c r="K162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>496</v>
+      </c>
+      <c r="B163" t="s">
+        <v>461</v>
+      </c>
+      <c r="C163" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" t="s">
+        <v>53</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F163" t="s">
+        <v>36</v>
+      </c>
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" t="s">
+        <v>127</v>
+      </c>
+      <c r="I163" t="s">
+        <v>25</v>
+      </c>
+      <c r="J163" t="s">
+        <v>341</v>
+      </c>
+      <c r="K163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>496</v>
+      </c>
+      <c r="B164" t="s">
+        <v>396</v>
+      </c>
+      <c r="C164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" t="s">
+        <v>53</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F164" t="s">
+        <v>36</v>
+      </c>
+      <c r="G164" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" t="s">
+        <v>101</v>
+      </c>
+      <c r="I164" t="s">
+        <v>25</v>
+      </c>
+      <c r="J164" t="s">
+        <v>398</v>
+      </c>
+      <c r="K164" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>496</v>
+      </c>
+      <c r="B165" t="s">
+        <v>501</v>
+      </c>
+      <c r="C165" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F165" t="s">
+        <v>36</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" t="s">
+        <v>101</v>
+      </c>
+      <c r="I165" t="s">
+        <v>25</v>
+      </c>
+      <c r="J165" t="s">
+        <v>25</v>
+      </c>
+      <c r="K165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>496</v>
+      </c>
+      <c r="B166" t="s">
+        <v>503</v>
+      </c>
+      <c r="C166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F166" t="s">
+        <v>36</v>
+      </c>
+      <c r="G166" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" t="s">
+        <v>68</v>
+      </c>
+      <c r="I166" t="s">
+        <v>505</v>
+      </c>
+      <c r="J166" t="s">
+        <v>25</v>
+      </c>
+      <c r="K166" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>506</v>
+      </c>
+      <c r="B167" t="s">
+        <v>325</v>
+      </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" t="s">
+        <v>53</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F167" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" t="s">
+        <v>229</v>
+      </c>
+      <c r="I167" t="s">
+        <v>25</v>
+      </c>
+      <c r="J167" t="s">
+        <v>141</v>
+      </c>
+      <c r="K167" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>506</v>
+      </c>
+      <c r="B168" t="s">
+        <v>457</v>
+      </c>
+      <c r="C168" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" t="s">
+        <v>53</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F168" t="s">
+        <v>36</v>
+      </c>
+      <c r="G168" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" t="s">
+        <v>449</v>
+      </c>
+      <c r="I168" t="s">
+        <v>25</v>
+      </c>
+      <c r="J168" t="s">
+        <v>186</v>
+      </c>
+      <c r="K168" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>506</v>
+      </c>
+      <c r="B169" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" t="s">
+        <v>53</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F169" t="s">
+        <v>36</v>
+      </c>
+      <c r="G169" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" t="s">
+        <v>101</v>
+      </c>
+      <c r="I169" t="s">
+        <v>25</v>
+      </c>
+      <c r="J169" t="s">
+        <v>341</v>
+      </c>
+      <c r="K169" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>506</v>
+      </c>
+      <c r="B170" t="s">
+        <v>503</v>
+      </c>
+      <c r="C170" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170" t="s">
+        <v>53</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F170" t="s">
+        <v>36</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" t="s">
+        <v>68</v>
+      </c>
+      <c r="I170" t="s">
+        <v>25</v>
+      </c>
+      <c r="J170" t="s">
+        <v>511</v>
+      </c>
+      <c r="K170" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>506</v>
+      </c>
+      <c r="B171" t="s">
+        <v>411</v>
+      </c>
+      <c r="C171" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" t="s">
+        <v>53</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F171" t="s">
+        <v>36</v>
+      </c>
+      <c r="G171" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" t="s">
+        <v>63</v>
+      </c>
+      <c r="I171" t="s">
+        <v>25</v>
+      </c>
+      <c r="J171" t="s">
+        <v>513</v>
+      </c>
+      <c r="K171" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>506</v>
+      </c>
+      <c r="B172" t="s">
+        <v>468</v>
+      </c>
+      <c r="C172" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" t="s">
+        <v>53</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F172" t="s">
+        <v>36</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
+      <c r="H172" t="s">
+        <v>470</v>
+      </c>
+      <c r="I172" t="s">
+        <v>25</v>
+      </c>
+      <c r="J172" t="s">
+        <v>511</v>
+      </c>
+      <c r="K172" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>506</v>
+      </c>
+      <c r="B173" t="s">
+        <v>466</v>
+      </c>
+      <c r="C173" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" t="s">
+        <v>53</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F173" t="s">
+        <v>36</v>
+      </c>
+      <c r="G173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" t="s">
+        <v>68</v>
+      </c>
+      <c r="I173" t="s">
+        <v>25</v>
+      </c>
+      <c r="J173" t="s">
+        <v>516</v>
+      </c>
+      <c r="K173" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>506</v>
+      </c>
+      <c r="B174" t="s">
+        <v>390</v>
+      </c>
+      <c r="C174" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" t="s">
+        <v>53</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F174" t="s">
+        <v>36</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" t="s">
+        <v>384</v>
+      </c>
+      <c r="I174" t="s">
+        <v>25</v>
+      </c>
+      <c r="J174" t="s">
+        <v>511</v>
+      </c>
+      <c r="K174" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>506</v>
+      </c>
+      <c r="B175" t="s">
+        <v>364</v>
+      </c>
+      <c r="C175" t="s">
+        <v>34</v>
+      </c>
+      <c r="D175" t="s">
+        <v>53</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F175" t="s">
+        <v>36</v>
+      </c>
+      <c r="G175" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" t="s">
+        <v>101</v>
+      </c>
+      <c r="I175" t="s">
+        <v>25</v>
+      </c>
+      <c r="J175" t="s">
+        <v>519</v>
+      </c>
+      <c r="K175" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>506</v>
+      </c>
+      <c r="B176" t="s">
+        <v>419</v>
+      </c>
+      <c r="C176" t="s">
+        <v>34</v>
+      </c>
+      <c r="D176" t="s">
+        <v>53</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F176" t="s">
+        <v>36</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" t="s">
+        <v>378</v>
+      </c>
+      <c r="I176" t="s">
+        <v>25</v>
+      </c>
+      <c r="J176" t="s">
+        <v>220</v>
+      </c>
+      <c r="K176" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>506</v>
+      </c>
+      <c r="B177" t="s">
+        <v>440</v>
+      </c>
+      <c r="C177" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" t="s">
+        <v>53</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F177" t="s">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" t="s">
+        <v>77</v>
+      </c>
+      <c r="I177" t="s">
+        <v>25</v>
+      </c>
+      <c r="J177" t="s">
+        <v>522</v>
+      </c>
+      <c r="K177" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>506</v>
+      </c>
+      <c r="B178" t="s">
+        <v>450</v>
+      </c>
+      <c r="C178" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" t="s">
+        <v>53</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F178" t="s">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" t="s">
+        <v>63</v>
+      </c>
+      <c r="I178" t="s">
+        <v>25</v>
+      </c>
+      <c r="J178" t="s">
+        <v>52</v>
+      </c>
+      <c r="K178" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>506</v>
+      </c>
+      <c r="B179" t="s">
+        <v>459</v>
+      </c>
+      <c r="C179" t="s">
+        <v>34</v>
+      </c>
+      <c r="D179" t="s">
+        <v>53</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F179" t="s">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>17</v>
+      </c>
+      <c r="H179" t="s">
+        <v>229</v>
+      </c>
+      <c r="I179" t="s">
+        <v>25</v>
+      </c>
+      <c r="J179" t="s">
+        <v>145</v>
+      </c>
+      <c r="K179" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>506</v>
+      </c>
+      <c r="B180" t="s">
+        <v>113</v>
+      </c>
+      <c r="C180" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" t="s">
+        <v>53</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F180" t="s">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" t="s">
+        <v>115</v>
+      </c>
+      <c r="I180" t="s">
+        <v>25</v>
+      </c>
+      <c r="J180" t="s">
+        <v>47</v>
+      </c>
+      <c r="K180" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>506</v>
+      </c>
+      <c r="B181" t="s">
+        <v>492</v>
+      </c>
+      <c r="C181" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s">
+        <v>53</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F181" t="s">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" t="s">
+        <v>77</v>
+      </c>
+      <c r="I181" t="s">
+        <v>25</v>
+      </c>
+      <c r="J181" t="s">
+        <v>527</v>
+      </c>
+      <c r="K181" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>506</v>
+      </c>
+      <c r="B182" t="s">
+        <v>473</v>
+      </c>
+      <c r="C182" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" t="s">
+        <v>53</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F182" t="s">
+        <v>36</v>
+      </c>
+      <c r="G182" t="s">
+        <v>17</v>
+      </c>
+      <c r="H182" t="s">
+        <v>72</v>
+      </c>
+      <c r="I182" t="s">
+        <v>25</v>
+      </c>
+      <c r="J182" t="s">
+        <v>25</v>
+      </c>
+      <c r="K182" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>529</v>
+      </c>
+      <c r="B183" t="s">
+        <v>478</v>
+      </c>
+      <c r="C183" t="s">
+        <v>34</v>
+      </c>
+      <c r="D183" t="s">
+        <v>53</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F183" t="s">
+        <v>36</v>
+      </c>
+      <c r="G183" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" t="s">
+        <v>51</v>
+      </c>
+      <c r="I183" t="s">
+        <v>25</v>
+      </c>
+      <c r="J183" t="s">
+        <v>511</v>
+      </c>
+      <c r="K183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>529</v>
+      </c>
+      <c r="B184" t="s">
+        <v>473</v>
+      </c>
+      <c r="C184" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" t="s">
+        <v>53</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F184" t="s">
+        <v>36</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
+      <c r="H184" t="s">
+        <v>72</v>
+      </c>
+      <c r="I184" t="s">
+        <v>25</v>
+      </c>
+      <c r="J184" t="s">
+        <v>25</v>
+      </c>
+      <c r="K184" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>529</v>
+      </c>
+      <c r="B185" t="s">
+        <v>353</v>
+      </c>
+      <c r="C185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185" t="s">
+        <v>53</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F185" t="s">
+        <v>36</v>
+      </c>
+      <c r="G185" t="s">
+        <v>17</v>
+      </c>
+      <c r="H185" t="s">
+        <v>77</v>
+      </c>
+      <c r="I185" t="s">
+        <v>25</v>
+      </c>
+      <c r="J185" t="s">
+        <v>89</v>
+      </c>
+      <c r="K185" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>529</v>
+      </c>
+      <c r="B186" t="s">
+        <v>428</v>
+      </c>
+      <c r="C186" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" t="s">
+        <v>53</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G186" t="s">
+        <v>17</v>
+      </c>
+      <c r="H186" t="s">
+        <v>101</v>
+      </c>
+      <c r="I186" t="s">
+        <v>25</v>
+      </c>
+      <c r="J186" t="s">
+        <v>534</v>
+      </c>
+      <c r="K186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>529</v>
+      </c>
+      <c r="B187" t="s">
+        <v>494</v>
+      </c>
+      <c r="C187" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" t="s">
+        <v>53</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F187" t="s">
+        <v>36</v>
+      </c>
+      <c r="G187" t="s">
+        <v>17</v>
+      </c>
+      <c r="H187" t="s">
+        <v>63</v>
+      </c>
+      <c r="I187" t="s">
+        <v>25</v>
+      </c>
+      <c r="J187" t="s">
+        <v>145</v>
+      </c>
+      <c r="K187" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>536</v>
+      </c>
+      <c r="B188" t="s">
+        <v>288</v>
+      </c>
+      <c r="C188" t="s">
+        <v>34</v>
+      </c>
+      <c r="D188" t="s">
+        <v>53</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F188" t="s">
+        <v>36</v>
+      </c>
+      <c r="G188" t="s">
+        <v>17</v>
+      </c>
+      <c r="H188" t="s">
+        <v>405</v>
+      </c>
+      <c r="I188" t="s">
+        <v>25</v>
+      </c>
+      <c r="J188" t="s">
+        <v>538</v>
+      </c>
+      <c r="K188" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>536</v>
+      </c>
+      <c r="B189" t="s">
+        <v>453</v>
+      </c>
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" t="s">
+        <v>53</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F189" t="s">
+        <v>36</v>
+      </c>
+      <c r="G189" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" t="s">
+        <v>37</v>
+      </c>
+      <c r="I189" t="s">
+        <v>25</v>
+      </c>
+      <c r="J189" t="s">
+        <v>341</v>
+      </c>
+      <c r="K189" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>536</v>
+      </c>
+      <c r="B190" t="s">
+        <v>437</v>
+      </c>
+      <c r="C190" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" t="s">
+        <v>53</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F190" t="s">
+        <v>36</v>
+      </c>
+      <c r="G190" t="s">
+        <v>17</v>
+      </c>
+      <c r="H190" t="s">
+        <v>439</v>
+      </c>
+      <c r="I190" t="s">
+        <v>25</v>
+      </c>
+      <c r="J190" t="s">
+        <v>220</v>
+      </c>
+      <c r="K190" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4887,10 +8719,10 @@
     <hyperlink ref="E31" r:id="rId30"/>
     <hyperlink ref="E32" r:id="rId31"/>
     <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E35" r:id="rId33"/>
+    <hyperlink ref="E36" r:id="rId34"/>
+    <hyperlink ref="E37" r:id="rId35"/>
+    <hyperlink ref="E34" r:id="rId36"/>
     <hyperlink ref="E38" r:id="rId37"/>
     <hyperlink ref="E39" r:id="rId38"/>
     <hyperlink ref="E40" r:id="rId39"/>
@@ -4958,8 +8790,93 @@
     <hyperlink ref="E102" r:id="rId101"/>
     <hyperlink ref="E103" r:id="rId102"/>
     <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
+    <hyperlink ref="E115" r:id="rId114"/>
+    <hyperlink ref="E116" r:id="rId115"/>
+    <hyperlink ref="E117" r:id="rId116"/>
+    <hyperlink ref="E118" r:id="rId117"/>
+    <hyperlink ref="E119" r:id="rId118"/>
+    <hyperlink ref="E120" r:id="rId119"/>
+    <hyperlink ref="E121" r:id="rId120"/>
+    <hyperlink ref="E122" r:id="rId121"/>
+    <hyperlink ref="E123" r:id="rId122"/>
+    <hyperlink ref="E124" r:id="rId123"/>
+    <hyperlink ref="E125" r:id="rId124"/>
+    <hyperlink ref="E126" r:id="rId125"/>
+    <hyperlink ref="E127" r:id="rId126"/>
+    <hyperlink ref="E128" r:id="rId127"/>
+    <hyperlink ref="E129" r:id="rId128"/>
+    <hyperlink ref="E130" r:id="rId129"/>
+    <hyperlink ref="E131" r:id="rId130"/>
+    <hyperlink ref="E132" r:id="rId131"/>
+    <hyperlink ref="E133" r:id="rId132"/>
+    <hyperlink ref="E134" r:id="rId133"/>
+    <hyperlink ref="E135" r:id="rId134"/>
+    <hyperlink ref="E136" r:id="rId135"/>
+    <hyperlink ref="E137" r:id="rId136"/>
+    <hyperlink ref="E138" r:id="rId137"/>
+    <hyperlink ref="E139" r:id="rId138"/>
+    <hyperlink ref="E140" r:id="rId139"/>
+    <hyperlink ref="E141" r:id="rId140"/>
+    <hyperlink ref="E142" r:id="rId141"/>
+    <hyperlink ref="E143" r:id="rId142"/>
+    <hyperlink ref="E144" r:id="rId143"/>
+    <hyperlink ref="E145" r:id="rId144"/>
+    <hyperlink ref="E146" r:id="rId145"/>
+    <hyperlink ref="E147" r:id="rId146"/>
+    <hyperlink ref="E148" r:id="rId147"/>
+    <hyperlink ref="E149" r:id="rId148"/>
+    <hyperlink ref="E150" r:id="rId149"/>
+    <hyperlink ref="E151" r:id="rId150"/>
+    <hyperlink ref="E152" r:id="rId151"/>
+    <hyperlink ref="E153" r:id="rId152"/>
+    <hyperlink ref="E154" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="E156" r:id="rId155"/>
+    <hyperlink ref="E157" r:id="rId156"/>
+    <hyperlink ref="E158" r:id="rId157"/>
+    <hyperlink ref="E159" r:id="rId158"/>
+    <hyperlink ref="E160" r:id="rId159"/>
+    <hyperlink ref="E161" r:id="rId160"/>
+    <hyperlink ref="E162" r:id="rId161"/>
+    <hyperlink ref="E163" r:id="rId162"/>
+    <hyperlink ref="E164" r:id="rId163"/>
+    <hyperlink ref="E165" r:id="rId164"/>
+    <hyperlink ref="E166" r:id="rId165"/>
+    <hyperlink ref="E167" r:id="rId166"/>
+    <hyperlink ref="E168" r:id="rId167"/>
+    <hyperlink ref="E169" r:id="rId168"/>
+    <hyperlink ref="E170" r:id="rId169"/>
+    <hyperlink ref="E171" r:id="rId170"/>
+    <hyperlink ref="E172" r:id="rId171"/>
+    <hyperlink ref="E173" r:id="rId172"/>
+    <hyperlink ref="E174" r:id="rId173"/>
+    <hyperlink ref="E175" r:id="rId174"/>
+    <hyperlink ref="E176" r:id="rId175"/>
+    <hyperlink ref="E177" r:id="rId176"/>
+    <hyperlink ref="E178" r:id="rId177"/>
+    <hyperlink ref="E179" r:id="rId178"/>
+    <hyperlink ref="E180" r:id="rId179"/>
+    <hyperlink ref="E181" r:id="rId180"/>
+    <hyperlink ref="E182" r:id="rId181"/>
+    <hyperlink ref="E183" r:id="rId182"/>
+    <hyperlink ref="E184" r:id="rId183"/>
+    <hyperlink ref="E185" r:id="rId184"/>
+    <hyperlink ref="E186" r:id="rId185"/>
+    <hyperlink ref="E187" r:id="rId186"/>
+    <hyperlink ref="E188" r:id="rId187"/>
+    <hyperlink ref="E189" r:id="rId188"/>
+    <hyperlink ref="E190" r:id="rId189"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId104"/>
 </worksheet>
 </file>
--- a/DART_dividends.xlsx
+++ b/DART_dividends.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongjin\Desktop\Dropbox\배당주\Crawler\new.version\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -8878,5 +8873,6 @@
     <hyperlink ref="E190" r:id="rId189"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId190"/>
 </worksheet>
 </file>